--- a/Profile_DataElement.xlsx
+++ b/Profile_DataElement.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Comments</t>
   </si>
@@ -145,6 +145,51 @@
   </si>
   <si>
     <t xml:space="preserve">DataElement.element    </t>
+  </si>
+  <si>
+    <t>OM1.2</t>
+  </si>
+  <si>
+    <t>MFE.1</t>
+  </si>
+  <si>
+    <t>OM1.21</t>
+  </si>
+  <si>
+    <t>OM1.16</t>
+  </si>
+  <si>
+    <t>OM1.11</t>
+  </si>
+  <si>
+    <t>OM1.17</t>
+  </si>
+  <si>
+    <t>OM1.18, OM1.42, OM1.46, OM7.3</t>
+  </si>
+  <si>
+    <t>OM1.ProducerObservation ID</t>
+  </si>
+  <si>
+    <t>OM1.ObservationChangeDateTime</t>
+  </si>
+  <si>
+    <t>OM1.ObservationProducingDepartment</t>
+  </si>
+  <si>
+    <t>OM1.ObservationPreferredLongName</t>
+  </si>
+  <si>
+    <t>OM1.TelephoneNumber</t>
+  </si>
+  <si>
+    <t>OM1.NatureOfObservation + OM1.KindOfQuantity + OM1.TargetAnatomicSiteOfTest + OM7. CategoryIdentifier</t>
+  </si>
+  <si>
+    <t>MFE.RecordLevelEventCode</t>
+  </si>
+  <si>
+    <t>OM1.18 + OM1.42 + OM1.46 + OM7.3</t>
   </si>
 </sst>
 </file>
@@ -576,7 +621,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,9 +683,15 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -658,9 +709,15 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
@@ -678,9 +735,15 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
@@ -688,9 +751,15 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
@@ -708,9 +777,15 @@
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
@@ -718,9 +793,15 @@
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
@@ -728,9 +809,15 @@
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
